--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -49,6 +49,9 @@
     <t>体重</t>
   </si>
   <si>
+    <t>半径</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>ModelR</t>
   </si>
   <si>
     <t>int</t>
@@ -100,12 +106,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,23 +142,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,43 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -211,8 +197,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,41 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,9 +272,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,30 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,8 +513,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,13 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,156 +576,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,52 +753,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1092,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1126,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1157,11 @@
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1161,46 +1170,52 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1211,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1225,8 +1240,11 @@
       <c r="J6" s="1">
         <v>68</v>
       </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    <row r="7" s="1" customFormat="1" spans="3:11">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1234,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1251,8 +1269,11 @@
       <c r="J7" s="1">
         <v>78</v>
       </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:10">
+    <row r="8" s="1" customFormat="1" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1266,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1280,8 +1301,11 @@
       <c r="J8" s="1">
         <v>68</v>
       </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:10">
+    <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1292,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -1308,6 +1332,9 @@
       </c>
       <c r="J9" s="1">
         <v>78</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -52,6 +52,9 @@
     <t>半径</t>
   </si>
   <si>
+    <t>预制件名称</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>ModelR</t>
   </si>
   <si>
+    <t>Prefab</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>带有强力攻击技能</t>
   </si>
   <si>
+    <t>P_001</t>
+  </si>
+  <si>
     <t>测试说明2</t>
   </si>
   <si>
@@ -91,16 +100,25 @@
     <t>带有强力攻击技能2</t>
   </si>
   <si>
+    <t>P_002</t>
+  </si>
+  <si>
     <t>米克尔3</t>
   </si>
   <si>
     <t>带有强力攻击技能3</t>
   </si>
   <si>
+    <t>P_003</t>
+  </si>
+  <si>
     <t>米克尔4</t>
   </si>
   <si>
     <t>带有强力攻击技能4</t>
+  </si>
+  <si>
+    <t>P_004</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1115,7 +1133,9 @@
     <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:10">
@@ -1132,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1180,11 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,52 +1193,58 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:12">
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" s="1" customFormat="1" spans="3:12">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1226,10 +1255,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1243,8 +1272,11 @@
       <c r="K6" s="1">
         <v>100</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1252,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1272,8 +1304,11 @@
       <c r="K7" s="1">
         <v>100</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:11">
+    <row r="8" s="1" customFormat="1" spans="2:12">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1287,10 +1322,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1304,8 +1339,11 @@
       <c r="K8" s="1">
         <v>100</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:11">
+    <row r="9" s="1" customFormat="1" spans="2:12">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1316,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -1335,6 +1373,9 @@
       </c>
       <c r="K9" s="1">
         <v>100</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,17 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
+    <sheet name="Monster" sheetId="2" r:id="rId2"/>
+    <sheet name="Npc" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -119,12 +134,18 @@
   </si>
   <si>
     <t>P_004</t>
+  </si>
+  <si>
+    <t>Id(2000起)</t>
+  </si>
+  <si>
+    <t>Id(5000起)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -758,12 +779,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1116,16 +1140,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L9"/>
+  <dimension ref="C2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
@@ -1153,94 +1177,94 @@
       </c>
     </row>
     <row r="3" spans="3:12">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1257,7 +1281,7 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="1">
@@ -1289,7 +1313,7 @@
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="1">
@@ -1308,10 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:12">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="8" s="1" customFormat="1" spans="3:12">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1324,7 +1345,7 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="1">
@@ -1343,10 +1364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:12">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="9" s="1" customFormat="1" spans="3:12">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1359,7 +1377,7 @@
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="1">
@@ -1376,6 +1394,347 @@
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5"/>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
+      <c r="C6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>178</v>
+      </c>
+      <c r="J6" s="1">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
+      <c r="C6" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>178</v>
+      </c>
+      <c r="J6" s="1">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -103,40 +103,43 @@
     <t>带有强力攻击技能</t>
   </si>
   <si>
+    <t>SchoolGirl001</t>
+  </si>
+  <si>
+    <t>测试说明2</t>
+  </si>
+  <si>
+    <t>米克尔2</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能2</t>
+  </si>
+  <si>
+    <t>P_002</t>
+  </si>
+  <si>
+    <t>米克尔3</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能3</t>
+  </si>
+  <si>
+    <t>P_003</t>
+  </si>
+  <si>
+    <t>米克尔4</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能4</t>
+  </si>
+  <si>
+    <t>P_004</t>
+  </si>
+  <si>
+    <t>Id(2000起)</t>
+  </si>
+  <si>
     <t>P_001</t>
-  </si>
-  <si>
-    <t>测试说明2</t>
-  </si>
-  <si>
-    <t>米克尔2</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-  </si>
-  <si>
-    <t>P_002</t>
-  </si>
-  <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-  </si>
-  <si>
-    <t>P_003</t>
-  </si>
-  <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
-  </si>
-  <si>
-    <t>P_004</t>
-  </si>
-  <si>
-    <t>Id(2000起)</t>
   </si>
   <si>
     <t>Id(5000起)</t>
@@ -1140,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L27"/>
+  <dimension ref="C2:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1396,7 +1399,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1410,7 +1412,7 @@
   <dimension ref="C2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1564,7 +1566,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1581,7 @@
   <sheetPr/>
   <dimension ref="C2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1617,7 @@
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -1734,7 +1736,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
